--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2000380.61464738</v>
+        <v>1998493.033130979</v>
       </c>
     </row>
     <row r="7">
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>300.8638984122743</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>241.9550410706426</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,16 +829,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>52.10844059186253</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>18.01892853764461</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>296.7607853996625</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>27.77238941128158</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1066,7 +1066,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>30.54110646053108</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>291.0720451262694</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>6.283679164003906</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>15.74955790720838</v>
+        <v>254.312819370907</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.5498582286378</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>163.8946345805325</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>122.6519788371598</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>195.8546201790395</v>
       </c>
     </row>
     <row r="20">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.843519215192</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>132.8470574485323</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002179</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,13 +2533,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>106.5579632528937</v>
+        <v>139.1537278750029</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896553</v>
+        <v>93.41221638965533</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801211</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437419</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>21.65873182143839</v>
       </c>
       <c r="H31" t="n">
-        <v>60.90656735995355</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571495</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523575</v>
+        <v>54.76109577523577</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3007,10 +3007,10 @@
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604801</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415277</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>555.4725825998845</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>555.4725825998845</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="D2" t="n">
-        <v>555.4725825998845</v>
+        <v>1635.28076286629</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>1249.492510268045</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>838.5066054784379</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2002.909215450461</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1671.84632810689</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1319.077672836776</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>945.6119145756962</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>555.4725825998845</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0636002298164</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0636002298164</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>366.9469608174807</v>
       </c>
       <c r="E4" t="n">
-        <v>580.2158906240411</v>
+        <v>219.0338672350875</v>
       </c>
       <c r="F4" t="n">
-        <v>433.3259431261307</v>
+        <v>72.14391973717719</v>
       </c>
       <c r="G4" t="n">
-        <v>264.3261428644631</v>
+        <v>72.14391973717719</v>
       </c>
       <c r="H4" t="n">
-        <v>106.5777702969933</v>
+        <v>72.14391973717719</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>72.14391973717719</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>764.6872557005402</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097701</v>
+        <v>764.6872557005402</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177354</v>
+        <v>353.7013509109326</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2669.096172420968</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2338.033285077397</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2338.033285077397</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1964.567526816317</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4659,10 +4659,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2443.387305656313</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>2074.424788715902</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>1716.159090109151</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>1330.370837510907</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>919.3849327212995</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>501.4211246194864</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656313</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656313</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W8" t="n">
-        <v>2443.387305656313</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>2443.387305656313</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>2443.387305656313</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4948,64 +4948,64 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5072,16 +5072,16 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,22 +5118,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>563.1598612984388</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="C13" t="n">
-        <v>394.223678370532</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,10 +5200,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1483.007626207187</v>
+        <v>1130.959531391539</v>
       </c>
       <c r="V13" t="n">
-        <v>1483.007626207187</v>
+        <v>876.2750431856521</v>
       </c>
       <c r="W13" t="n">
-        <v>1193.590456170226</v>
+        <v>586.8578731486915</v>
       </c>
       <c r="X13" t="n">
-        <v>965.6009052722087</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="Y13" t="n">
-        <v>744.8083261286786</v>
+        <v>358.8683222506741</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5358,19 +5358,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>395.2468244550148</v>
+        <v>472.1975378985028</v>
       </c>
       <c r="C16" t="n">
-        <v>395.2468244550148</v>
+        <v>303.2613549705959</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>303.2613549705959</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>155.3482613882028</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>155.3482613882028</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5437,10 +5437,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1133.446124533523</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V16" t="n">
-        <v>1133.446124533523</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W16" t="n">
-        <v>844.0289544965623</v>
+        <v>874.6385818722729</v>
       </c>
       <c r="X16" t="n">
-        <v>616.0394035985449</v>
+        <v>874.6385818722727</v>
       </c>
       <c r="Y16" t="n">
-        <v>395.2468244550148</v>
+        <v>653.8460027287425</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5513,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1375.025382843599</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1151.239967633105</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="U19" t="n">
-        <v>862.1113288466634</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="V19" t="n">
-        <v>607.4268406407765</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="W19" t="n">
-        <v>318.0096706038159</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>736.1461909267688</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>538.3132412509713</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5762,40 +5762,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5817,13 +5817,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5832,25 +5832,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5911,7 +5911,7 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799365</v>
@@ -5929,31 +5929,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>493.3586382081045</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>493.3586382081045</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>493.3586382081045</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>493.3586382081045</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>493.3586382081045</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>675.0071030383442</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,46 +6209,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>584.7466045204287</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C28" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D28" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E28" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1391.281964241848</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U28" t="n">
-        <v>1102.153325455407</v>
+        <v>869.3083006011509</v>
       </c>
       <c r="V28" t="n">
-        <v>1102.153325455407</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W28" t="n">
-        <v>812.7361554184459</v>
+        <v>325.2066423583033</v>
       </c>
       <c r="X28" t="n">
-        <v>584.7466045204287</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="Y28" t="n">
-        <v>584.7466045204287</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6503,10 +6503,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6546,16 +6546,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163769</v>
+        <v>604.5641438163771</v>
       </c>
       <c r="C31" t="n">
-        <v>604.5641438163769</v>
+        <v>491.3888261698409</v>
       </c>
       <c r="D31" t="n">
-        <v>510.208369685412</v>
+        <v>397.0330520388758</v>
       </c>
       <c r="E31" t="n">
-        <v>418.0561413843897</v>
+        <v>304.8808237378535</v>
       </c>
       <c r="F31" t="n">
-        <v>326.9270591678501</v>
+        <v>213.7517415213139</v>
       </c>
       <c r="G31" t="n">
-        <v>214.5126027690415</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569672</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
@@ -6625,10 +6625,10 @@
         <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667505</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962046</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737482</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818924</v>
+        <v>902.6804289818925</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652459</v>
+        <v>730.451743365246</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652459</v>
+        <v>730.451743365246</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6689,37 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,7 +6859,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649693</v>
@@ -6877,13 +6877,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
@@ -6938,49 +6938,49 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,43 +7157,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083212</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504515</v>
+        <v>320.884739850452</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
@@ -7594,7 +7594,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982966</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525396</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254956</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735866</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.4091825776758</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814711</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814711</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23470,10 +23470,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>270.487794491369</v>
+        <v>31.92453302767032</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>108.9437102347398</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>122.3427178180449</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>75.26883114644345</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>22.73003317305528</v>
       </c>
     </row>
     <row r="20">
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338569</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338534</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>33.64651101484525</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338534</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>114.9895978054954</v>
+        <v>82.39383318338642</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>89.63158001338218</v>
       </c>
       <c r="H31" t="n">
-        <v>32.80400437902552</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571496</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-6.323830348264892e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538231</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538231</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538231</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>909266.5780904577</v>
+        <v>909266.5780904576</v>
       </c>
     </row>
     <row r="12">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117846</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117848</v>
@@ -26323,22 +26323,22 @@
         <v>508337.7776590216</v>
       </c>
       <c r="F2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="G2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="H2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="I2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="J2" t="n">
         <v>508337.7776590214</v>
       </c>
-      <c r="G2" t="n">
-        <v>508337.7776590215</v>
-      </c>
-      <c r="H2" t="n">
-        <v>508337.7776590214</v>
-      </c>
-      <c r="I2" t="n">
-        <v>508337.7776590215</v>
-      </c>
-      <c r="J2" t="n">
-        <v>508337.7776590216</v>
-      </c>
       <c r="K2" t="n">
-        <v>528868.7785488509</v>
+        <v>528868.7785488506</v>
       </c>
       <c r="L2" t="n">
         <v>533677.1504117843</v>
@@ -26347,13 +26347,13 @@
         <v>533677.1504117844</v>
       </c>
       <c r="N2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="O2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="P2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117843</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284561</v>
+        <v>44162.60530284565</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086689</v>
+        <v>10342.90680086691</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284548</v>
+        <v>44162.60530284561</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
         <v>156774.9582512226</v>
@@ -26439,7 +26439,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143916</v>
       </c>
       <c r="K4" t="n">
         <v>33210.29213563564</v>
@@ -26448,16 +26448,16 @@
         <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275956</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275958</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26488,10 +26488,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26506,10 +26506,10 @@
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-295924.7651173925</v>
+        <v>-295924.7651173922</v>
       </c>
       <c r="C6" t="n">
-        <v>294043.1140971525</v>
+        <v>294043.1140971524</v>
       </c>
       <c r="D6" t="n">
         <v>294043.1140971527</v>
       </c>
       <c r="E6" t="n">
-        <v>-123855.2543880303</v>
+        <v>-123952.7135140024</v>
       </c>
       <c r="F6" t="n">
-        <v>401304.7820888656</v>
+        <v>401207.3229628939</v>
       </c>
       <c r="G6" t="n">
-        <v>401304.7820888658</v>
+        <v>401207.3229628937</v>
       </c>
       <c r="H6" t="n">
-        <v>401304.7820888658</v>
+        <v>401207.3229628936</v>
       </c>
       <c r="I6" t="n">
-        <v>401304.7820888658</v>
+        <v>401207.3229628939</v>
       </c>
       <c r="J6" t="n">
-        <v>224881.562896273</v>
+        <v>224784.1037703006</v>
       </c>
       <c r="K6" t="n">
-        <v>354867.6725801469</v>
+        <v>354849.1788422121</v>
       </c>
       <c r="L6" t="n">
         <v>388154.6809281324</v>
@@ -26555,13 +26555,13 @@
         <v>263696.5724951623</v>
       </c>
       <c r="N6" t="n">
-        <v>398497.5877289996</v>
+        <v>398497.5877289994</v>
       </c>
       <c r="O6" t="n">
-        <v>398497.5877289995</v>
+        <v>398497.5877289993</v>
       </c>
       <c r="P6" t="n">
-        <v>354334.9824261541</v>
+        <v>354334.9824261537</v>
       </c>
     </row>
   </sheetData>
@@ -26707,10 +26707,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26741,40 +26741,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,22 +26932,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>55.20325662855706</v>
+      </c>
+      <c r="L2" t="n">
+        <v>12.92863350108363</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>55.20325662855701</v>
-      </c>
-      <c r="L2" t="n">
-        <v>12.92863350108362</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>55.20325662855705</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>112.9202716085207</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>9.269126437646747</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,16 +27549,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>82.85718120047571</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>27.1810306508924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27622,13 +27622,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>117.0233846211325</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,10 +27670,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>223.4517780970077</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,16 +27786,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>116.1240855196268</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>32.85072763808773</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>48.19472341080779</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,19 +27907,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29530,49 +29530,49 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-1.789171857118529e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35504,7 +35504,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
         <v>528.689756130333</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35978,7 +35978,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586608</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337001</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.71102679412255</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.42895660043177</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37324,10 +37324,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414415</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
